--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\Soumission\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9F3424-500A-4656-AC8A-37D8DE134520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594A55D-600D-4C0E-AED4-04C44D0165DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>https://www.morphosource.org/concern/media/000780068?locale=en</t>
+  </si>
+  <si>
+    <t>000780098</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780098?locale=en</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
   <dimension ref="A1:N999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1154,6 +1160,12 @@
       </c>
       <c r="L5" s="4">
         <v>0.33668427550000002</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594A55D-600D-4C0E-AED4-04C44D0165DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13DD12-709D-475D-B143-2CA1FF7F4CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -589,6 +589,42 @@
   </si>
   <si>
     <t>https://www.morphosource.org/concern/media/000780098?locale=en</t>
+  </si>
+  <si>
+    <t>000780107</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780107?locale=en</t>
+  </si>
+  <si>
+    <t>000780112</t>
+  </si>
+  <si>
+    <t>000780332</t>
+  </si>
+  <si>
+    <t>000780389</t>
+  </si>
+  <si>
+    <t>000780394</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780112?locale=en</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780332?locale=en</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780389?locale=en</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780394?locale=en</t>
+  </si>
+  <si>
+    <t>000780399</t>
+  </si>
+  <si>
+    <t>https://www.morphosource.org/concern/media/000780399?locale=en</t>
   </si>
 </sst>
 </file>
@@ -674,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -707,6 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,8 +964,8 @@
   </sheetPr>
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1205,6 +1242,12 @@
       <c r="L6" s="4">
         <v>0.33261599149999999</v>
       </c>
+      <c r="M6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1243,6 +1286,12 @@
       <c r="L7" s="4">
         <v>0.35054236370000003</v>
       </c>
+      <c r="M7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1281,6 +1330,12 @@
       <c r="L8" s="4">
         <v>0.35753703409999998</v>
       </c>
+      <c r="M8" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1319,6 +1374,12 @@
       <c r="L9" s="4">
         <v>0.29190033780000002</v>
       </c>
+      <c r="M9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1357,6 +1418,12 @@
       <c r="L10" s="4">
         <v>0.30504747430000001</v>
       </c>
+      <c r="M10" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1394,6 +1461,12 @@
       </c>
       <c r="L11" s="4">
         <v>0.29601948220000002</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13DD12-709D-475D-B143-2CA1FF7F4CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D4B74-9F62-4410-BCDE-2A7CD4FC7F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -324,18 +324,9 @@
     <t>000780052</t>
   </si>
   <si>
-    <t>Morphosource URL</t>
-  </si>
-  <si>
-    <t>https://www.morphosource.org/concern/media/000780052?locale=en</t>
-  </si>
-  <si>
     <t>000780063</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780063?locale=en</t>
-  </si>
-  <si>
     <t>Catalog number</t>
   </si>
   <si>
@@ -582,21 +573,12 @@
     <t>000780068</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780068?locale=en</t>
-  </si>
-  <si>
     <t>000780098</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780098?locale=en</t>
-  </si>
-  <si>
     <t>000780107</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780107?locale=en</t>
-  </si>
-  <si>
     <t>000780112</t>
   </si>
   <si>
@@ -609,22 +591,22 @@
     <t>000780394</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780112?locale=en</t>
-  </si>
-  <si>
-    <t>https://www.morphosource.org/concern/media/000780332?locale=en</t>
-  </si>
-  <si>
-    <t>https://www.morphosource.org/concern/media/000780389?locale=en</t>
-  </si>
-  <si>
-    <t>https://www.morphosource.org/concern/media/000780394?locale=en</t>
-  </si>
-  <si>
     <t>000780399</t>
   </si>
   <si>
-    <t>https://www.morphosource.org/concern/media/000780399?locale=en</t>
+    <t>000780472</t>
+  </si>
+  <si>
+    <t>000780477</t>
+  </si>
+  <si>
+    <t>000780486</t>
+  </si>
+  <si>
+    <t>000780496</t>
+  </si>
+  <si>
+    <t>000780501</t>
   </si>
 </sst>
 </file>
@@ -710,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -729,9 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +941,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N999"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -981,16 +960,15 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="58.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1022,19 +1000,16 @@
       <c r="L1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>84</v>
@@ -1066,19 +1041,16 @@
       <c r="L2" s="4">
         <v>0.32984328000000002</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>84</v>
@@ -1110,19 +1082,16 @@
       <c r="L3" s="4">
         <v>0.3465479092</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>84</v>
@@ -1154,19 +1123,16 @@
       <c r="L4" s="4">
         <v>0.33545323539999999</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>84</v>
@@ -1198,19 +1164,16 @@
       <c r="L5" s="4">
         <v>0.33668427550000002</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>84</v>
@@ -1242,19 +1205,16 @@
       <c r="L6" s="4">
         <v>0.33261599149999999</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>84</v>
@@ -1286,19 +1246,16 @@
       <c r="L7" s="4">
         <v>0.35054236370000003</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="N7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>84</v>
@@ -1330,19 +1287,16 @@
       <c r="L8" s="4">
         <v>0.35753703409999998</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>84</v>
@@ -1374,19 +1328,16 @@
       <c r="L9" s="4">
         <v>0.29190033780000002</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -1418,19 +1369,16 @@
       <c r="L10" s="4">
         <v>0.30504747430000001</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="N10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>84</v>
@@ -1462,19 +1410,16 @@
       <c r="L11" s="4">
         <v>0.29601948220000002</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>84</v>
@@ -1506,13 +1451,16 @@
       <c r="L12" s="4">
         <v>0.35781047700000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -1544,13 +1492,16 @@
       <c r="L13" s="4">
         <v>0.34375933809999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>84</v>
@@ -1582,13 +1533,16 @@
       <c r="L14" s="4">
         <v>0.28765978469999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>84</v>
@@ -1620,13 +1574,16 @@
       <c r="L15" s="4">
         <v>0.27926125819999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>84</v>
@@ -1657,6 +1614,9 @@
       </c>
       <c r="L16" s="4">
         <v>0.4116410009</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1664,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>84</v>
@@ -1702,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>84</v>
@@ -1740,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>84</v>
@@ -1778,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>84</v>
@@ -1816,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>84</v>
@@ -1854,7 +1814,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>85</v>
@@ -1892,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>85</v>
@@ -1930,7 +1890,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>85</v>
@@ -1968,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -2006,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>85</v>
@@ -2044,7 +2004,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>85</v>
@@ -2055,20 +2015,20 @@
       <c r="E27" s="5">
         <v>10.77</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>85</v>
@@ -2106,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2144,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>85</v>
@@ -2182,7 +2142,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>85</v>
@@ -2220,7 +2180,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>85</v>
@@ -2258,7 +2218,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>85</v>
@@ -2296,7 +2256,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>85</v>
@@ -2334,7 +2294,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>85</v>
@@ -2372,7 +2332,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>85</v>
@@ -2410,7 +2370,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>85</v>
@@ -2448,7 +2408,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>85</v>
@@ -2486,7 +2446,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>85</v>
@@ -2524,7 +2484,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>85</v>
@@ -2562,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>85</v>
@@ -2600,7 +2560,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>86</v>
@@ -2638,7 +2598,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>86</v>
@@ -2649,20 +2609,20 @@
       <c r="E43" s="5">
         <v>13.48</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>86</v>
@@ -2700,7 +2660,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>86</v>
@@ -2738,7 +2698,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>86</v>
@@ -2776,7 +2736,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -2814,7 +2774,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
@@ -2852,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -2890,7 +2850,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>86</v>
@@ -2928,7 +2888,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>86</v>
@@ -2966,7 +2926,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>86</v>
@@ -2977,20 +2937,20 @@
       <c r="E52" s="5">
         <v>11.98</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>86</v>
@@ -3028,7 +2988,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>86</v>
@@ -3066,7 +3026,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>86</v>
@@ -3104,7 +3064,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>86</v>
@@ -3142,7 +3102,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>86</v>
@@ -3180,7 +3140,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>86</v>
@@ -3218,7 +3178,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>86</v>
@@ -3256,7 +3216,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>86</v>
@@ -3294,7 +3254,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>86</v>
@@ -3332,7 +3292,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>87</v>
@@ -3370,7 +3330,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>87</v>
@@ -3408,7 +3368,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>87</v>
@@ -3446,7 +3406,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>87</v>
@@ -3484,7 +3444,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>87</v>
@@ -3522,7 +3482,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>87</v>
@@ -3560,7 +3520,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>87</v>
@@ -3598,7 +3558,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>87</v>
@@ -3636,7 +3596,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>87</v>
@@ -3674,7 +3634,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>87</v>
@@ -3712,7 +3672,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>87</v>
@@ -3750,7 +3710,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>87</v>
@@ -3788,7 +3748,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>87</v>
@@ -3826,7 +3786,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>87</v>
@@ -3864,7 +3824,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -3902,7 +3862,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>87</v>
@@ -3940,7 +3900,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>87</v>
@@ -3978,7 +3938,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>87</v>
@@ -4016,7 +3976,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>87</v>
@@ -4054,7 +4014,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>87</v>

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D4B74-9F62-4410-BCDE-2A7CD4FC7F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C010161-7EFD-4286-BC3D-43E75C295BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -607,6 +607,21 @@
   </si>
   <si>
     <t>000780501</t>
+  </si>
+  <si>
+    <t>000780549</t>
+  </si>
+  <si>
+    <t>000780555</t>
+  </si>
+  <si>
+    <t>000780558</t>
+  </si>
+  <si>
+    <t>000780564</t>
+  </si>
+  <si>
+    <t>000780569</t>
   </si>
 </sst>
 </file>
@@ -943,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1634,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1656,8 +1671,11 @@
       <c r="L17" s="4">
         <v>0.34138694720000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1694,8 +1712,11 @@
       <c r="L18" s="4">
         <v>0.30296876109999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1732,8 +1753,11 @@
       <c r="L19" s="4">
         <v>0.36820240250000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1770,8 +1794,11 @@
       <c r="L20" s="4">
         <v>0.35318054110000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1808,8 +1835,11 @@
       <c r="L21" s="4">
         <v>0.28988287579999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1847,7 +1877,7 @@
         <v>0.37196989930000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1915,7 @@
         <v>0.38650448529999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1953,7 @@
         <v>0.38119094209999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1961,7 +1991,7 @@
         <v>0.36625111370000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +2029,7 @@
         <v>0.3530799141</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2053,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2091,7 @@
         <v>0.36891226030000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2099,7 +2129,7 @@
         <v>0.33959370840000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2137,7 +2167,7 @@
         <v>0.32168593029999998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2175,7 +2205,7 @@
         <v>0.3982258903</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C010161-7EFD-4286-BC3D-43E75C295BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367410E0-4FA7-40DC-A807-99BB4B35087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -622,6 +622,24 @@
   </si>
   <si>
     <t>000780569</t>
+  </si>
+  <si>
+    <t>000781155</t>
+  </si>
+  <si>
+    <t>000781160</t>
+  </si>
+  <si>
+    <t>000781174</t>
+  </si>
+  <si>
+    <t>000781180</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>000781185</t>
   </si>
 </sst>
 </file>
@@ -958,8 +976,9 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1876,6 +1895,9 @@
       <c r="L22" s="4">
         <v>0.37196989930000002</v>
       </c>
+      <c r="M22" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1914,6 +1936,9 @@
       <c r="L23" s="4">
         <v>0.38650448529999998</v>
       </c>
+      <c r="M23" s="7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1952,6 +1977,9 @@
       <c r="L24" s="4">
         <v>0.38119094209999999</v>
       </c>
+      <c r="M24" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1990,6 +2018,9 @@
       <c r="L25" s="4">
         <v>0.36625111370000002</v>
       </c>
+      <c r="M25" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2027,6 +2058,9 @@
       </c>
       <c r="L26" s="4">
         <v>0.3530799141</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2052,6 +2086,9 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
+      <c r="M27" s="11" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2243,7 +2280,7 @@
         <v>0.36992181169999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2318,7 @@
         <v>0.36044045120000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2319,7 +2356,7 @@
         <v>0.39543349100000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2357,7 +2394,7 @@
         <v>0.45360957010000003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2395,7 +2432,7 @@
         <v>0.34942507579999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2433,7 +2470,7 @@
         <v>0.35956652760000002</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2508,7 @@
         <v>0.41365354100000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2509,7 +2546,7 @@
         <v>0.41546428010000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2547,7 +2584,7 @@
         <v>0.36307698799999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2585,7 +2622,7 @@
         <v>0.42903689379999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2623,7 +2660,7 @@
         <v>0.40007983349999998</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -2646,8 +2683,11 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2685,7 +2725,7 @@
         <v>0.52539216990000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2723,7 +2763,7 @@
         <v>0.54321463380000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2761,7 +2801,7 @@
         <v>0.40637066170000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +2839,7 @@
         <v>0.489282936</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2837,7 +2877,7 @@
         <v>0.36909546710000002</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2875,7 +2915,7 @@
         <v>0.4858621648</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2913,7 +2953,7 @@
         <v>0.45069029329999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,7 +2991,7 @@
         <v>0.40886664890000002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
@@ -2974,8 +3014,11 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -3013,7 +3056,7 @@
         <v>0.44422282089999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -3051,7 +3094,7 @@
         <v>0.49070757370000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -3089,7 +3132,7 @@
         <v>0.45674431999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -3127,7 +3170,7 @@
         <v>0.46049650399999997</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -3165,7 +3208,7 @@
         <v>0.40912641970000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -3203,7 +3246,7 @@
         <v>0.4274536592</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,7 +3284,7 @@
         <v>0.50195154740000003</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -3279,7 +3322,7 @@
         <v>0.378718471</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -3317,7 +3360,7 @@
         <v>0.41869364120000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,7 +3398,7 @@
         <v>0.57481916879999995</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -3393,7 +3436,7 @@
         <v>0.43637719609999998</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -4039,7 +4082,7 @@
         <v>0.53708896510000004</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -4077,7 +4120,7 @@
         <v>0.31413398320000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -4110,21 +4153,24 @@
       <c r="L82" s="4">
         <v>5.6718909440000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M82" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5031,5 +5077,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367410E0-4FA7-40DC-A807-99BB4B35087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E00302-5C94-4E46-BBD1-E808025DC94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>000781185</t>
+  </si>
+  <si>
+    <t>000784056</t>
+  </si>
+  <si>
+    <t>000784061</t>
+  </si>
+  <si>
+    <t>000784066</t>
+  </si>
+  <si>
+    <t>000784071</t>
   </si>
 </sst>
 </file>
@@ -976,9 +988,9 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M28" sqref="M28"/>
+      <selection pane="topRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2127,6 +2139,9 @@
       <c r="L28" s="4">
         <v>0.36891226030000002</v>
       </c>
+      <c r="M28" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2165,6 +2180,9 @@
       <c r="L29" s="4">
         <v>0.33959370840000003</v>
       </c>
+      <c r="M29" s="7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2203,6 +2221,9 @@
       <c r="L30" s="4">
         <v>0.32168593029999998</v>
       </c>
+      <c r="M30" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2240,6 +2261,9 @@
       </c>
       <c r="L31" s="4">
         <v>0.3982258903</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E00302-5C94-4E46-BBD1-E808025DC94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368335C-2A7C-496E-A197-400E38FFDE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -652,6 +652,21 @@
   </si>
   <si>
     <t>000784071</t>
+  </si>
+  <si>
+    <t>000785848</t>
+  </si>
+  <si>
+    <t>000785841</t>
+  </si>
+  <si>
+    <t>000785850</t>
+  </si>
+  <si>
+    <t>000785856</t>
+  </si>
+  <si>
+    <t>000785861</t>
   </si>
 </sst>
 </file>
@@ -988,9 +1003,9 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2303,6 +2318,9 @@
       <c r="L32" s="4">
         <v>0.36992181169999999</v>
       </c>
+      <c r="M32" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2341,6 +2359,9 @@
       <c r="L33" s="4">
         <v>0.36044045120000001</v>
       </c>
+      <c r="M33" s="7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2379,6 +2400,9 @@
       <c r="L34" s="4">
         <v>0.39543349100000003</v>
       </c>
+      <c r="M34" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2417,6 +2441,9 @@
       <c r="L35" s="4">
         <v>0.45360957010000003</v>
       </c>
+      <c r="M35" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2454,6 +2481,9 @@
       </c>
       <c r="L36" s="4">
         <v>0.34942507579999998</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Volume_and_morphosource_ID.xlsx
+++ b/Volume_and_morphosource_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document_UQAR\These\chapitre_1\Article\projet_git_hub\Raw_data_Axolotl_Brains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368335C-2A7C-496E-A197-400E38FFDE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A375F62-E8A5-40CD-B414-98C05042C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="219">
   <si>
     <t>ID</t>
   </si>
@@ -667,6 +667,21 @@
   </si>
   <si>
     <t>000785861</t>
+  </si>
+  <si>
+    <t>000786621</t>
+  </si>
+  <si>
+    <t>000786626</t>
+  </si>
+  <si>
+    <t>000786631</t>
+  </si>
+  <si>
+    <t>000786636</t>
+  </si>
+  <si>
+    <t>000786641</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1019,8 @@
   <dimension ref="A1:M999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M37" sqref="M37"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2523,6 +2538,9 @@
       <c r="L37" s="4">
         <v>0.35956652760000002</v>
       </c>
+      <c r="M37" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2561,6 +2579,9 @@
       <c r="L38" s="4">
         <v>0.41365354100000001</v>
       </c>
+      <c r="M38" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2599,6 +2620,9 @@
       <c r="L39" s="4">
         <v>0.41546428010000003</v>
       </c>
+      <c r="M39" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2637,6 +2661,9 @@
       <c r="L40" s="4">
         <v>0.36307698799999999</v>
       </c>
+      <c r="M40" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2674,6 +2701,9 @@
       </c>
       <c r="L41" s="4">
         <v>0.42903689379999999</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
